--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_288__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_288__Reeval_Halton_Modell_1.1.xlsx
@@ -5996,10 +5996,10 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.17561340332031</c:v>
+                  <c:v>42.17562103271484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.38656997680664</c:v>
+                  <c:v>47.38657760620117</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-0.3239705860614777</c:v>
@@ -6014,7 +6014,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.57463645935059</c:v>
+                  <c:v>25.57463264465332</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42.40144729614258</c:v>
@@ -6023,7 +6023,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.723340034484863</c:v>
+                  <c:v>-6.723338603973389</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>36.32476043701172</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.12149047851562</c:v>
+                  <c:v>34.12149429321289</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.3239705860614777</c:v>
@@ -6059,16 +6059,16 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.65091514587402</c:v>
+                  <c:v>12.65091705322266</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.85583114624023</c:v>
+                  <c:v>33.8558349609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.72572708129883</c:v>
+                  <c:v>41.72572326660156</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.3239705860614777</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.67965698242188</c:v>
+                  <c:v>39.67964935302734</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.3239705860614777</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.11624908447266</c:v>
+                  <c:v>40.11624145507812</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>36.58160400390625</c:v>
@@ -6140,13 +6140,13 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.95310592651367</c:v>
+                  <c:v>36.95310974121094</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>38.40720367431641</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21.98999786376953</c:v>
+                  <c:v>21.98999977111816</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>50.68416213989258</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>41.16144943237305</c:v>
+                  <c:v>41.16145706176758</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.3239705860614777</c:v>
@@ -6179,7 +6179,7 @@
                   <c:v>27.08284378051758</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40.40412902832031</c:v>
+                  <c:v>40.40412139892578</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.3239705860614777</c:v>
@@ -6191,22 +6191,22 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40.26268005371094</c:v>
+                  <c:v>40.2626838684082</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42.67694473266602</c:v>
+                  <c:v>42.67693710327148</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>44.35107040405273</c:v>
+                  <c:v>44.35107803344727</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40.74026489257812</c:v>
+                  <c:v>40.74026870727539</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>47.81364822387695</c:v>
+                  <c:v>47.81363677978516</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>47.05765533447266</c:v>
+                  <c:v>47.05764770507812</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38.60142517089844</c:v>
@@ -6215,16 +6215,16 @@
                   <c:v>-2.599596500396729</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.16429710388184</c:v>
+                  <c:v>19.16429901123047</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>44.63593292236328</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>19.88301467895508</c:v>
+                  <c:v>19.88301086425781</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34.36266326904297</c:v>
+                  <c:v>34.36266708374023</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-0.3239705860614777</c:v>
@@ -6236,7 +6236,7 @@
                   <c:v>-0.3239705860614777</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>28.43370628356934</c:v>
+                  <c:v>28.43370246887207</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.3239705860614777</c:v>
@@ -6281,7 +6281,7 @@
                   <c:v>46.56624984741211</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>35.95459365844727</c:v>
+                  <c:v>35.9546012878418</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-0.3239705860614777</c:v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>42.17561340332031</v>
+        <v>42.17562103271484</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.38656997680664</v>
+        <v>47.38657760620117</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.57463645935059</v>
+        <v>25.57463264465332</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-6.723340034484863</v>
+        <v>-6.723338603973389</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>34.12149047851562</v>
+        <v>34.12149429321289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>12.65091514587402</v>
+        <v>12.65091705322266</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>33.85583114624023</v>
+        <v>33.8558349609375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>41.72572708129883</v>
+        <v>41.72572326660156</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>39.67965698242188</v>
+        <v>39.67964935302734</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.8156</v>
       </c>
       <c r="F41">
-        <v>40.11624908447266</v>
+        <v>40.11624145507812</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>36.95310592651367</v>
+        <v>36.95310974121094</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>21.98999786376953</v>
+        <v>21.98999977111816</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>41.16144943237305</v>
+        <v>41.16145706176758</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>40.40412902832031</v>
+        <v>40.40412139892578</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>40.26268005371094</v>
+        <v>40.2626838684082</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>42.67694473266602</v>
+        <v>42.67693710327148</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>44.35107040405273</v>
+        <v>44.35107803344727</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>40.74026489257812</v>
+        <v>40.74026870727539</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>47.81364822387695</v>
+        <v>47.81363677978516</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>47.05765533447266</v>
+        <v>47.05764770507812</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>19.16429710388184</v>
+        <v>19.16429901123047</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>19.88301467895508</v>
+        <v>19.88301086425781</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>34.36266326904297</v>
+        <v>34.36266708374023</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>28.43370628356934</v>
+        <v>28.43370246887207</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>35.95459365844727</v>
+        <v>35.9546012878418</v>
       </c>
     </row>
     <row r="101" spans="1:6">
